--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H2">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I2">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J2">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>1391.953543768597</v>
+        <v>1153.781093686424</v>
       </c>
       <c r="R2">
-        <v>12527.58189391738</v>
+        <v>10384.02984317781</v>
       </c>
       <c r="S2">
-        <v>0.01717091097368093</v>
+        <v>0.01655629011115354</v>
       </c>
       <c r="T2">
-        <v>0.0198772883547599</v>
+        <v>0.01800157093340436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H3">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I3">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J3">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>1489.59078495656</v>
+        <v>1399.676227597946</v>
       </c>
       <c r="R3">
-        <v>13406.31706460904</v>
+        <v>12597.08604838152</v>
       </c>
       <c r="S3">
-        <v>0.01837534799218607</v>
+        <v>0.02008478541779146</v>
       </c>
       <c r="T3">
-        <v>0.02127156160902521</v>
+        <v>0.02183808612637239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H4">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I4">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J4">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>747.9721968408213</v>
+        <v>790.1865928890204</v>
       </c>
       <c r="R4">
-        <v>6731.749771567392</v>
+        <v>7111.679336001183</v>
       </c>
       <c r="S4">
-        <v>0.009226862534485137</v>
+        <v>0.01133885669075645</v>
       </c>
       <c r="T4">
-        <v>0.01068114600843308</v>
+        <v>0.01232868182738899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H5">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I5">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J5">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>1704.515851537356</v>
+        <v>861.7580328095668</v>
       </c>
       <c r="R5">
-        <v>10227.09510922414</v>
+        <v>5170.5481968574</v>
       </c>
       <c r="S5">
-        <v>0.02102662841802535</v>
+        <v>0.01236587778642332</v>
       </c>
       <c r="T5">
-        <v>0.01622714744465622</v>
+        <v>0.00896357113143946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H6">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I6">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J6">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>854.5631530180508</v>
+        <v>850.0920478920799</v>
       </c>
       <c r="R6">
-        <v>7691.068377162457</v>
+        <v>7650.828431028719</v>
       </c>
       <c r="S6">
-        <v>0.01054175111486365</v>
+        <v>0.01219847564074495</v>
       </c>
       <c r="T6">
-        <v>0.01220327954617175</v>
+        <v>0.01326334118646194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J7">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>5825.918321240045</v>
+        <v>5139.28212383045</v>
       </c>
       <c r="R7">
-        <v>52433.2648911604</v>
+        <v>46253.53911447405</v>
       </c>
       <c r="S7">
-        <v>0.07186757437544179</v>
+        <v>0.07374661126864279</v>
       </c>
       <c r="T7">
-        <v>0.08319491618164135</v>
+        <v>0.08018431936973196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J8">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>6234.571752828168</v>
+        <v>6234.571752828166</v>
       </c>
       <c r="R8">
-        <v>56111.14577545351</v>
+        <v>56111.1457754535</v>
       </c>
       <c r="S8">
-        <v>0.07690865618761998</v>
+        <v>0.08946357261655719</v>
       </c>
       <c r="T8">
-        <v>0.08903054347912077</v>
+        <v>0.09727329236202406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J9">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>3130.582155461311</v>
+        <v>3519.724715153578</v>
       </c>
       <c r="R9">
-        <v>28175.2393991518</v>
+        <v>31677.5224363822</v>
       </c>
       <c r="S9">
-        <v>0.03861834881477676</v>
+        <v>0.05050662020235665</v>
       </c>
       <c r="T9">
-        <v>0.04470514443599503</v>
+        <v>0.05491559401745042</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J10">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>7134.124678780526</v>
+        <v>3838.525069721042</v>
       </c>
       <c r="R10">
-        <v>42804.74807268316</v>
+        <v>23031.15041832626</v>
       </c>
       <c r="S10">
-        <v>0.08800539377400739</v>
+        <v>0.05508127581652817</v>
       </c>
       <c r="T10">
-        <v>0.06791752212026592</v>
+        <v>0.03992639603263379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J11">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>3576.710697072073</v>
+        <v>3786.5613236765</v>
       </c>
       <c r="R11">
-        <v>32190.39627364866</v>
+        <v>34079.0519130885</v>
       </c>
       <c r="S11">
-        <v>0.04412171744737962</v>
+        <v>0.05433561716474099</v>
       </c>
       <c r="T11">
-        <v>0.0510759214670134</v>
+        <v>0.05907884314871061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H12">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I12">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J12">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>3723.760792622589</v>
+        <v>3938.321680017888</v>
       </c>
       <c r="R12">
-        <v>33513.8471336033</v>
+        <v>35444.89512016099</v>
       </c>
       <c r="S12">
-        <v>0.04593570334559646</v>
+        <v>0.05651331664405222</v>
       </c>
       <c r="T12">
-        <v>0.05317581708848577</v>
+        <v>0.0614466448352762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H13">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I13">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J13">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>3984.96040827299</v>
+        <v>4777.661258551359</v>
       </c>
       <c r="R13">
-        <v>35864.64367445691</v>
+        <v>42998.95132696224</v>
       </c>
       <c r="S13">
-        <v>0.04915781903097332</v>
+        <v>0.0685574987163841</v>
       </c>
       <c r="T13">
-        <v>0.0569057835817487</v>
+        <v>0.07454222340114451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H14">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I14">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J14">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>2000.978806395185</v>
+        <v>2697.226542420779</v>
       </c>
       <c r="R14">
-        <v>18008.80925755667</v>
+        <v>24275.03888178701</v>
       </c>
       <c r="S14">
-        <v>0.02468374688124357</v>
+        <v>0.03870410546349157</v>
       </c>
       <c r="T14">
-        <v>0.02857425300186063</v>
+        <v>0.04208277912728979</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H15">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I15">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J15">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>4559.928976633787</v>
+        <v>2941.528823894801</v>
       </c>
       <c r="R15">
-        <v>27359.57385980272</v>
+        <v>17649.1729433688</v>
       </c>
       <c r="S15">
-        <v>0.05625053713509798</v>
+        <v>0.04220974398455393</v>
       </c>
       <c r="T15">
-        <v>0.04341094262881669</v>
+        <v>0.03059629483487165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H16">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I16">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J16">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>2286.131443304528</v>
+        <v>2901.70809744096</v>
       </c>
       <c r="R16">
-        <v>20575.18298974075</v>
+        <v>26115.37287696864</v>
       </c>
       <c r="S16">
-        <v>0.02820134311439391</v>
+        <v>0.04163833273226845</v>
       </c>
       <c r="T16">
-        <v>0.03264627193837007</v>
+        <v>0.04527314967280425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H17">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I17">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J17">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>2670.855969904495</v>
+        <v>1187.119906219542</v>
       </c>
       <c r="R17">
-        <v>16025.13581942697</v>
+        <v>7122.719437317251</v>
       </c>
       <c r="S17">
-        <v>0.03294724187316584</v>
+        <v>0.01703468853116585</v>
       </c>
       <c r="T17">
-        <v>0.02542679411751466</v>
+        <v>0.0123478207522529</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H18">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I18">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J18">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>2858.200590476995</v>
+        <v>1440.12024563074</v>
       </c>
       <c r="R18">
-        <v>17149.20354286197</v>
+        <v>8640.721473784439</v>
       </c>
       <c r="S18">
-        <v>0.0352582944335401</v>
+        <v>0.02066514065109851</v>
       </c>
       <c r="T18">
-        <v>0.02721033211057656</v>
+        <v>0.01497940230095863</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H19">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I19">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J19">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>1435.195891556993</v>
+        <v>813.0192453138745</v>
       </c>
       <c r="R19">
-        <v>8611.175349341956</v>
+        <v>4878.115471883248</v>
       </c>
       <c r="S19">
-        <v>0.01770434149475794</v>
+        <v>0.01166649598006496</v>
       </c>
       <c r="T19">
-        <v>0.01366319669204306</v>
+        <v>0.008456614918738522</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H20">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I20">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J20">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>3270.595026864069</v>
+        <v>886.6587610863249</v>
       </c>
       <c r="R20">
-        <v>13082.38010745627</v>
+        <v>3546.6350443453</v>
       </c>
       <c r="S20">
-        <v>0.04034552466830212</v>
+        <v>0.01272319312430236</v>
       </c>
       <c r="T20">
-        <v>0.02075757667876382</v>
+        <v>0.006148383940520456</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H21">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I21">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J21">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>1639.720742920214</v>
+        <v>874.6556844221399</v>
       </c>
       <c r="R21">
-        <v>9838.324457521285</v>
+        <v>5247.934106532839</v>
       </c>
       <c r="S21">
-        <v>0.0202273265687821</v>
+        <v>0.01255095384896139</v>
       </c>
       <c r="T21">
-        <v>0.01561029206001749</v>
+        <v>0.009097725979153393</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H22">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I22">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J22">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>4620.759670300385</v>
+        <v>4486.002124645087</v>
       </c>
       <c r="R22">
-        <v>41586.83703270346</v>
+        <v>40374.01912180578</v>
       </c>
       <c r="S22">
-        <v>0.05700093461071233</v>
+        <v>0.0643723085958807</v>
       </c>
       <c r="T22">
-        <v>0.065985084628568</v>
+        <v>0.06999168724127916</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H23">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I23">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J23">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>4944.878408616361</v>
+        <v>5442.063980055223</v>
       </c>
       <c r="R23">
-        <v>44503.90567754724</v>
+        <v>48978.57582049701</v>
       </c>
       <c r="S23">
-        <v>0.06099921028983989</v>
+        <v>0.07809140793716346</v>
       </c>
       <c r="T23">
-        <v>0.07061354486097261</v>
+        <v>0.08490839492618189</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H24">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I24">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J24">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>2482.984994104528</v>
+        <v>3072.31480387701</v>
       </c>
       <c r="R24">
-        <v>22346.86494694075</v>
+        <v>27650.83323489309</v>
       </c>
       <c r="S24">
-        <v>0.03062969628089995</v>
+        <v>0.04408646968140044</v>
       </c>
       <c r="T24">
-        <v>0.0354573677615224</v>
+        <v>0.04793499665957568</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H25">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I25">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J25">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>5658.348397783087</v>
+        <v>3350.590841943846</v>
       </c>
       <c r="R25">
-        <v>33950.09038669852</v>
+        <v>20103.54505166308</v>
       </c>
       <c r="S25">
-        <v>0.06980045924043819</v>
+        <v>0.04807961781186296</v>
       </c>
       <c r="T25">
-        <v>0.0538679963939591</v>
+        <v>0.034851151019964</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H26">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I26">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J26">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>2836.826682088605</v>
+        <v>3305.23246901479</v>
       </c>
       <c r="R26">
-        <v>25531.44013879744</v>
+        <v>29747.09222113311</v>
       </c>
       <c r="S26">
-        <v>0.03499462939978974</v>
+        <v>0.04742874358165352</v>
       </c>
       <c r="T26">
-        <v>0.04051027580969769</v>
+        <v>0.05156903425437113</v>
       </c>
     </row>
   </sheetData>
